--- a/consolidacao/levantamento/2023_levantamento_CJBG.xlsx
+++ b/consolidacao/levantamento/2023_levantamento_CJBG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="615">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1436,6 +1436,21 @@
     <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
   </si>
   <si>
+    <t>30.26.1646</t>
+  </si>
+  <si>
+    <t>PARAFUSO, MATERIAL AÇO, 6MM, CABEÇA TIPO PANELA, COM BUCHA 6MM.</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>30.17.985</t>
+  </si>
+  <si>
+    <t>CABO ÁUDIO E VÍDEO, APLICAÇÃO PARA DATASHOW, TIPO CABO VGA, QUANTIDADE DE VIAS15 .</t>
+  </si>
+  <si>
     <t>CADMAT</t>
   </si>
   <si>
@@ -1457,232 +1472,373 @@
     <t>valor unitário</t>
   </si>
   <si>
-    <t xml:space="preserve"> PASTA ARQUIVO  MATERIAL CARTAO PLASTIFICADO, LOMBADA 20MM, COR AZUL, CARACTERÍSTICAS ADICI  ONAIS COM ABA E ELÁSTICO,TAMANHO OFICIO  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANETA ESFEROGRAFICA  MEDIA, VERMELHA, PLASTICO       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINA DE GRAFITE DE 0,7MM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINA DE GRAFITE DE 0,9MM, HB, NA COR GRAFITE </t>
+    <t>água mineral 20l</t>
+  </si>
+  <si>
+    <t>GRAMPEADOR PROFISSIONAL, EM METAL, 240/260 FLS, 23/6 A 23/24, BASE PROTETORA ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t>BLOCO RECADOS PAPEL RECICLADO, NATURAL, 38MM, 50MM, AUTO ADESIVO, 100 FOLHAS</t>
+  </si>
+  <si>
+    <t>COLCHETE PARA FIXAR PAPEL NUMERO COLCHETE PARA PAPÉIS, TIPO BAILARINA Nº 15, EM LANTONADO, CAIXA COM 72 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PASTA CARTAO MARMORIZADO, SUSPENSA, COM VISOR DE IDENTIFICAçãO EM PLáSTICO TRANSP ARENT, 361X240MM, 300G/M²</t>
+  </si>
+  <si>
+    <t>PAPEL A4/PAPEL RECICLADO, 75 G/M2</t>
+  </si>
+  <si>
+    <t>PAPEL A3, 90 G/M2, 297 X 420MM</t>
+  </si>
+  <si>
+    <t>PAPEL SULFITE 75 G/M2, MEDINDO 210 X 297MM</t>
+  </si>
+  <si>
+    <t>ETIQUETA AUTO-ADESIVA 70MM DE ALTURA POR 31MM DE LARGURA, PAPEL ALCALINO TIPO USO IMPRESSORA JATO ,LASER, TAMANHO A4, NA COR BRANCA.</t>
+  </si>
+  <si>
+    <t>CLIPE PARALELO, METAL, 2/0</t>
+  </si>
+  <si>
+    <t>LIVRO PARA REGISTRO DE ATA COM 200 FOLHAS, 220X320 MM</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE AMARELA, 250 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE AZUL CLARO, 250 ML</t>
+  </si>
+  <si>
+    <t>PAPEL CREPOM, 18 G/M², DIVERSAS</t>
+  </si>
+  <si>
+    <t>LINHA TRICÔ, MATERIAL 70% ACRILICO E 30% LA, FIO NE 3/5, COMPRIMENTO 167M, COR LILÁS, NOVELO, PESO 90G</t>
+  </si>
+  <si>
+    <t>ENVELOPE PAPEL KRAFT, 110G/M2, 360 X 260MM, COM BRASAO E IMPRESSAO DO SERVICO PUBLICO FEDERAL, PARDA</t>
+  </si>
+  <si>
+    <t>PASTA ARQUIVO PLASTICO TRANSPARENTE TIPO L, 21MM, 330MM, INCOLOR, CRISTALIZADA.</t>
+  </si>
+  <si>
+    <t>PASTA CATALOGO PAPELAO REVESTIDO EM PVC, NA COR PRETA, MEDINDO 250MM(LAR) X 345MM(ALT)</t>
+  </si>
+  <si>
+    <t>CAIXA ARQUIVO PLASTICO CORRUGADO FLEXIVEL, 1350 X 245MM, CORES VARIADAS</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA, PLASTICO, 12MM X 30M, COR VERDE, TIPO MONOFACE / MULTIUSO</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA MATERIAL CREPE, TIPO MONOFACE, LARGURA 50 MM, COMPRIMENTO 50 M, AMARELA</t>
+  </si>
+  <si>
+    <t>PINCEL PARA QUADRO MAGNETICO, COR AZUL,PLÁSTICO, PONTA ACRÍLICO, CAIXA COM 12 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PINCEL PARA QUADRO MAGNETICO, COR VERMELHA, PLÁSTICO, PONTA ACRÍLICO,CAIXA COM 12 UNIDADES.</t>
+  </si>
+  <si>
+    <t>PINCEL PARA QUADRO MAGNETICO, COR PRETA, PLÁSTICO, PONTA ACRÍLICO, CAIXA COM 12 UNIDADES</t>
+  </si>
+  <si>
+    <t>PASTA ARQUIVO,CARTÃO PRENSADO PLASTIFICADO, AZ, 280MM, 350MM, LOMBADA DE 50MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
+  </si>
+  <si>
+    <t>LAPISEIRA DE 0,9MM</t>
+  </si>
+  <si>
+    <t>PINCEL 12, PARA DESENHO, CERDA PELO ORELHA DE BOI, MATERIAL CABO MADEIRA,, PONTA REDONDO,</t>
+  </si>
+  <si>
+    <t>PINCEL Nº 16, DESENHO, CERDA DE PELO ANIMAL, REDONDO</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA VELCRO, 3M, LARGURA 20MM, AMARRAÇÃO</t>
+  </si>
+  <si>
+    <t>PINCEL ATOMICO VARIADA, FELTRO, RECARREGAVEL</t>
+  </si>
+  <si>
+    <t>CAIXA DE CORRESPONDENCIA EM ACRILICO, TIPO BANDEJA DUPLA</t>
   </si>
   <si>
     <t>TINTA PARA CARIMBO NA COR PRETA, A BASE AGUA</t>
   </si>
   <si>
-    <t xml:space="preserve">PINCEL ATOMICO  PRETA, FELTRO, DESCARTAVEL  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINCEL  MARCADOR PARA CD/DVD, COR PRETA, PERMANENTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ETIQUETA AUTO-ADESIVA  70MM DE ALTURA POR 31MM DE LARGURA, PAPEL ALCALINO TIPO USO IMPRESSORA JATO  ,LASER, TAMANHO A4, NA COR BRANCA.  </t>
+    <t>PASTA ARQUIVO, TIPO AZ, 350MM, 280MM, LOMBADA 85MM, COR CASTANHA</t>
+  </si>
+  <si>
+    <t>CANETA CORRETIVA, PONTA METALICA, 8 ML</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA CREPE, APLICACAO: MULTIUSO, LARGURA: 25MM, COMPRIMENTO: 50 M, BRANCA, TIPO FACE: MONOFACE</t>
+  </si>
+  <si>
+    <t>PORTA FITA ADESIVA MATERIAL PLASTICO RESISTENTE, TAMANHO PEQUENO</t>
+  </si>
+  <si>
+    <t>ENVELOPE , PAPEL KRAFT, 80 G/M2, SACO, 229X324 MM, PARDO</t>
+  </si>
+  <si>
+    <t>PAPEL ALMACO 75 G/M2,COM PAUTA E MARGEM, PACOTE C/ 10 UNID.</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE COR VERMELHA, PINTURA EM PAPEL/CARTÃO E CARTOLINA, 250ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE COR VERDE, PINTURA EM PAPEL/CARTÃO E CARTOLINA, 250ML</t>
+  </si>
+  <si>
+    <t>PAPEL EMBORRACHADO, MATERIAL BORRACHA EVA, COMPRIMENTO 60CM, LARGURA 40CM, ESPESSURA 2MM, PADRÃO LISO, COR VARIADA.</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE PARA PINTURA FACIAL, COR BRANCA, APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE PARA PINTURA FACIAL,COR VERMELHA APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHEPARA PINTURA FACIAL,COR VERDE APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE PARA PINTURA FACIAL,COR AMARELA APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE PARA PINTURA FACIAL,COR AZUL APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE PARA PINTURA FACIAL,COR PRETA APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
+  </si>
+  <si>
+    <t>TINTA GUACHE COR PRETA, PROPRIA PARA PINTAR PAPEIS, 250 ML</t>
+  </si>
+  <si>
+    <t>PAPEL KRAFT GRAMATURA DE 120G/M2, CELULOSE VEGETAL, COR PARDA</t>
+  </si>
+  <si>
+    <t>PAPEL EMBORRACHADO, MATERIAL EVA, COMPRIMENTO 60CM, LARGURA 40CM, ESPESSURA 2MM, COR VARIADA, PADRAO GLITERIZADO</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO FORMATO A4, AUTOADESIVO, EM POLIESTILENO COM CORTE PARA AUXÍLIO NA RETIRADA DO AVISO.</t>
+  </si>
+  <si>
+    <t>CAIXA ARQUIVO PLASTICO 135MM X 250MM X 360MM EM CORES VARIADAS</t>
+  </si>
+  <si>
+    <t>CARTOLINA DUPLA FACE 90G/M2, NA COR ROXA, 48X66 CM, COLOR SET</t>
+  </si>
+  <si>
+    <t>PASTA ARQUIVO CARTÃO PRENSADO PLASTIFICADO TIPO AZ LOMBADA ESTREITA, APLICAÇÃO ARQUIVO.</t>
+  </si>
+  <si>
+    <t>PAPEL CELOFANE MEDINDO COMPRIMENTO 100 CM LARGURA 85 CM, CORES VARIADAS</t>
+  </si>
+  <si>
+    <t>LAPISEIRA DE 0,7MM</t>
+  </si>
+  <si>
+    <t>COLA DE SILICONE, EM BASTAO DE 30G, MULTIUSO, DIAMETRO DE 11,3MM, COMPRIMENTO 30 CM, INCOLOR</t>
+  </si>
+  <si>
+    <t>Pacote</t>
+  </si>
+  <si>
+    <t>CARVAO VEGETAL APLICAÇÃO DESENHO ARTÍSTICO. FINO. CAIXA</t>
+  </si>
+  <si>
+    <t>caixa</t>
+  </si>
+  <si>
+    <t>CARVAO VEGETAL APLICAÇÃO DESENHO ARTÍSTICO. GROSSO. CAIXA</t>
+  </si>
+  <si>
+    <t>CARVAO VEGETAL APLICAÇÃO DESENHO ARTÍSTICO. MEDIO. CAIXA</t>
+  </si>
+  <si>
+    <t>CARTOLINA 180 G/M2, VERMELHA, 660MM X 500MM</t>
+  </si>
+  <si>
+    <t>CARTOLINA 180G/M2, LARANJA, 660 X 500 MM., CELULOSE VEGETAL</t>
+  </si>
+  <si>
+    <t>FITA TIPO ZEBRADA,COM LISTAS AMARELAS E PRETAS, LARGURA 70 MM, COMPRIMENTO 50 M, POLIETILENO</t>
+  </si>
+  <si>
+    <t>MARCADOR DE PAGINA FILME DE POLIESTER, ADESIVO ACRILICO, CORES DIVERSAS, LARGURA 12 MM, COMPRIMENTO 42 MM</t>
+  </si>
+  <si>
+    <t>A4. TAMANHO: A-4, MATERIAL: PAPEL ALCALINO,, 210 X 297 MM,, 75G/M2,, COR: BRANCA,, IMPRESSORA LASER E JATO DE TINTA, XEROGRÁFICO</t>
+  </si>
+  <si>
+    <t>BLOCO RECADOS PAPEL RECICLADO NATURAL, 76MM, 102MM, AUTO ADESIVO / 100 FOLHAS</t>
+  </si>
+  <si>
+    <t>CANETA ESFEROGRAFICA MEDIA, VERMELHA, PLASTICO</t>
+  </si>
+  <si>
+    <t>MINA DE GRAFITE DE 0,7MM</t>
+  </si>
+  <si>
+    <t>MINA DE GRAFITE DE 0,9MM, HB, NA COR GRAFITE</t>
+  </si>
+  <si>
+    <t>PASTA ARQUIVO PLASTICA/PVC, LARGURA 280 MM, ALTURA 390 MM, TIPO SANFONADA, INCOLOR, COM ELÁSTICO, 31 DIVISÓRIAS, VISOR E ETIQUETA</t>
+  </si>
+  <si>
+    <t>PASTA ARQUIVO MATERIAL CARTAO PLASTIFICADO, LOMBADA 20MM, COR AZUL, CARACTERÍSTICAS ADICI ONAIS COM ABA E ELÁSTICO,TAMANHO OFICIO</t>
+  </si>
+  <si>
+    <t>PRANCHETA PORTATIL EM ACRILICO FUME</t>
+  </si>
+  <si>
+    <t>PRENDEDOR DE PAPEL METAL, 41MM</t>
+  </si>
+  <si>
+    <t>PORTA CANETA NA COR CINZA FUME, EM ACRILICO, NO FORMATO COM PORTA CLIPS E PORTA RECADOS, MEDINDO ..</t>
+  </si>
+  <si>
+    <t>PINCEL ATOMICO PRETA, FELTRO, DESCARTAVEL</t>
+  </si>
+  <si>
+    <t>PINCEL MARCADOR PARA CD/DVD, COR PRETA, PERMANENTE</t>
+  </si>
+  <si>
+    <t>LIVRO ATA 100 FOLHAS, CAPA DURA</t>
+  </si>
+  <si>
+    <t>LIVRO PROTOCOLO,, 100 FOLHAS, COMPRIMENTO 220 MM, LARGURA 155 MM, PAPELAO, 75G/M2 , FOLHAS PAPEL APERGAMINADO</t>
+  </si>
+  <si>
+    <t>CORRETIVO LIQUIDO SECAGEM RAPIDA/BASE D'AGUA, PARA PAPEL COMUM/FRASCO 18 ML</t>
+  </si>
+  <si>
+    <t>ESTILETE ESTILETE DESENHO/CORPO PLÁSTICO RESISTENTE/LÂMINA 18 MM</t>
+  </si>
+  <si>
+    <t>COLA ACETICO E SILICONE LIQUIDO INCOLOR, PARA CERAMICA</t>
+  </si>
+  <si>
+    <t>CARTOLINA 180G/M2, CORES DIVERSAS, MATERIAL CELULOSE VEGETAL</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA PLASTICA TRANSPARENTE, 50MM X 50M, INCOLOR</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA POLIPROPILENO, TIPO MONOFACE,, 12 MM, COMPRIMENTO 50 M, INCOLOR, TIPO MONOFACE,_MULTIUSO</t>
+  </si>
+  <si>
+    <t>GRAMPO PARA GRAMPEADOR METAL, NIQUELADO, 23/20,PARA GRAMPEADOR GIGANTE DE MESA</t>
+  </si>
+  <si>
+    <t>GRAMPO 23/13, GALVANIZADO</t>
+  </si>
+  <si>
+    <t>GRAMPO PARA GRAMPEADOR METAL, NIQUELADO, 26X6</t>
+  </si>
+  <si>
+    <t>TESOURA ACO INOXIDAVEL MATERIAL, COMPRIMENTO 11 CM SEM PONTA, CABO PLASTICO</t>
+  </si>
+  <si>
+    <t>REGUA ACRILICO, MEDINDO 500 MM, TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>PAPEL PAPEL EMBORRACHADO TIPO EVA/CONFECCOES DE PAINEIS, PADRAO LISO, 60CMX40CMX2 CM, AZUL</t>
+  </si>
+  <si>
+    <t>PAPEL EMBORRACHADO, MATERIAL: BORRACHA EVA, ESPESSURA: 2CM, PADRAO LISO, 60CM X 40CM, VERDE</t>
+  </si>
+  <si>
+    <t>PAPELTIPO EMBORRACHADO / BORRACHA DE EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM, COR AMARELA, PADRAO LISO APLICAÇÃO CONFECÇÃO DE PAINEIS</t>
+  </si>
+  <si>
+    <t>PAPEL TIPO EMBORRACHADO / BORRACHA DE EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM,, NA COR VERMELHA, PADRÃO LISO, APLICAÇÃO CONFECÇÃO DEDE PAINEIS</t>
+  </si>
+  <si>
+    <t>COLCHETE PARA FIXAR PAPEL NUMERO 12</t>
+  </si>
+  <si>
+    <t>PAPELTIPO EMBORRACHADO / BORRACHA DE EVA, TIPO LISO, COR BRANCA</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS ACO CROMADO, ESPATULA</t>
   </si>
   <si>
     <t>LAPIS HB/2 MM/GRAFITE, MINA NA COR PRETO/MADEIRA/SEM BORRACHA APAGADORA</t>
   </si>
   <si>
-    <t xml:space="preserve">PRENDEDOR DE PAPEL METAL, 41MM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO RECADOS PAPEL RECICLADO NATURAL, 76MM, 102MM, AUTO ADESIVO / 100 FOLHAS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCADOR DE PAGINA  FILME DE POLIESTER, ADESIVO ACRILICO, CORES DIVERSAS, LARGURA 12 MM, COMPRIMENTO 42 MM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO RECADOS PAPEL RECICLADO, NATURAL, 38MM, 50MM, AUTO ADESIVO, 100 FOLHAS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPISEIRA  DE 0,9MM   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPISEIRA  DE 0,7MM   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINHA TRICÔ, MATERIAL 70% ACRILICO E 30% LA, FIO NE 3/5, COMPRIMENTO 167M, COR LILÁS, NOVELO, PESO 90G    </t>
-  </si>
-  <si>
-    <t>CARVAO VEGETAL APLICAÇÃO DESENHO ARTÍSTICO. FINO. CAIXA</t>
-  </si>
-  <si>
-    <t>caixa</t>
-  </si>
-  <si>
-    <t>CARVAO VEGETAL APLICAÇÃO DESENHO ARTÍSTICO. GROSSO. CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO VEGETAL APLICAÇÃO DESENHO ARTÍSTICO. MEDIO. CAIXA    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINCEL 12, PARA DESENHO, CERDA PELO ORELHA DE BOI, MATERIAL CABO MADEIRA,, PONTA REDONDO,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA GUACHE  COR VERDE, PINTURA EM PAPEL/CARTÃO E CARTOLINA, 250ML  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TINTA GUACHE   AMARELA, 250 ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINCEL Nº 16, DESENHO, CERDA DE PELO ANIMAL, REDONDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA GUACHE COR PRETA, PROPRIA PARA PINTAR PAPEIS, 250 ML     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL KRAFT GRAMATURA DE 80 G/M2, 96X66CM, 96X66CM, COR PARDA </t>
+    <t>PAPEL KRAFT GRAMATURA DE 80 G/M2, 96X66CM, 96X66CM, COR PARDA</t>
   </si>
   <si>
     <t>GIZ CERA COLORIDO, CORES VARIADAS</t>
   </si>
   <si>
-    <t xml:space="preserve">TINTA GUACHE COR VERMELHA, PINTURA EM PAPEL/CARTÃO E CARTOLINA, 250ML   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TINTA GUACHE AZUL CLARO, 250 ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CLIPE  PARALELO, METAL, 2/0     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CLIPE  CLIPS METAL 8/0 CAIXA 25X1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERCEVEJO EM METAL NIQUELADO, 10 MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLCHETE PARA FIXAR PAPEL   NUMERO 12   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COLCHETE PARA FIXAR PAPEL  NUMERO COLCHETE PARA PAPÉIS, TIPO BAILARINA Nº 15, EM LANTONADO, CAIXA COM  72 UNIDADES. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPO  23/13, GALVANIZADO </t>
-  </si>
-  <si>
-    <t>GRAMPO PARA GRAMPEADOR  METAL, NIQUELADO, 26X6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPO PARA GRAMPEADOR  METAL, NIQUELADO, 23/20,PARA GRAMPEADOR GIGANTE DE MESA   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUADRO DE AVISO FORMATO A4, AUTOADESIVO, EM POLIESTILENO COM CORTE PARA AUXÍLIO NA RETIRADA DO AVISO.   </t>
-  </si>
-  <si>
-    <t>TINTA GUACHE PARA PINTURA FACIAL, COR BRANCA, APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
-  </si>
-  <si>
-    <t>GRAMPEADOR PROFISSIONAL, EM METAL, 240/260 FLS, 23/6 A 23/24, BASE PROTETORA ANTIDERRAPANTE</t>
-  </si>
-  <si>
-    <t>TINTA GUACHE PARA PINTURA FACIAL,COR PRETA APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORRETIVO LIQUIDO SECAGEM RAPIDA/BASE D'AGUA, PARA PAPEL COMUM/FRASCO 18 ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PINCEL PARA QUADRO MAGNETICO, COR AZUL,PLÁSTICO, PONTA ACRÍLICO, CAIXA COM 12 UNIDADES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA GUACHE PARA PINTURA FACIAL,COR VERMELHA APLICAÇÃO ARTÍSTICA. POTE COM 15 ML   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRATOR DE GRAMPOS  ACO CROMADO, ESPATULA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA GUACHEPARA PINTURA FACIAL,COR VERDE  APLICAÇÃO ARTÍSTICA. POTE COM 15 ML  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PINCEL PARA QUADRO MAGNETICO, COR PRETA, PLÁSTICO, PONTA ACRÍLICO, CAIXA COM 12 UNIDADES  </t>
-  </si>
-  <si>
-    <t>TINTA GUACHE PARA PINTURA FACIAL,COR AZUL APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
-  </si>
-  <si>
-    <t>TESOURA   ACO INOXIDAVEL MATERIAL, COMPRIMENTO 11 CM SEM PONTA, CABO PLASTICO</t>
-  </si>
-  <si>
-    <t>TINTA GUACHE PARA PINTURA FACIAL,COR AMARELA   APLICAÇÃO ARTÍSTICA. POTE COM 15 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPELTIPO EMBORRACHADO / BORRACHA DE EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM, COR AMARELA, PADRAO LISO  APLICAÇÃO CONFECÇÃO DE PAINEIS </t>
-  </si>
-  <si>
-    <t>PAPEL PAPEL EMBORRACHADO TIPO EVA/CONFECCOES DE PAINEIS, PADRAO LISO, 60CMX40CMX2 CM, AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PINCEL PARA QUADRO MAGNETICO, COR VERMELHA, PLÁSTICO, PONTA ACRÍLICO,CAIXA COM 12 UNIDADES. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPELTIPO EMBORRACHADO / BORRACHA DE EVA, TIPO LISO, COR BRANCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL EMBORRACHADO, MATERIAL BORRACHA EVA, COMPRIMENTO 60CM, LARGURA 40CM, ESPESSURA 2MM, PADRÃO LISO, COR VARIADA.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL EMBORRACHADO, MATERIAL: BORRACHA EVA, ESPESSURA: 2CM, PADRAO LISO, 60CM X 40CM, VERDE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL TIPO EMBORRACHADO / BORRACHA DE EVA, COMPRIMENTO 60 CM, LARGURA 40 CM, ESPESSURA 2 MM,, NA COR VERMELHA, PADRÃO LISO, APLICAÇÃO CONFECÇÃO DEDE PAINEIS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGUA ACRILICO, MEDINDO 500 MM, TRANSPARENTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULADORA ELETRONICA, DE MESA, 12 DIGITOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTILETE ESTILETE  DESENHO/CORPO PLÁSTICO RESISTENTE/LÂMINA 18 MM       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL  EMBORRACHADO, MATERIAL EVA, COMPRIMENTO 60CM, LARGURA 40CM, ESPESSURA 2MM,  COR VARIADA, PADRAO GLITERIZADO   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTOLINA 180G/M2, CORES DIVERSAS, MATERIAL CELULOSE VEGETAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL CREPOM, 18 G/M², DIVERSAS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTOLINA DUPLA FACE 90G/M2, NA COR ROXA, 48X66 CM, COLOR SET   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARTOLINA  180G/M2, LARANJA, 660 X 500 MM., CELULOSE VEGETAL  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTOLINA 180 G/M2, VERMELHA, 660MM X 500MM  </t>
-  </si>
-  <si>
-    <t>PAPEL CELOFANE  MEDINDO COMPRIMENTO 100 CM LARGURA 85 CM, CORES VARIADAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DE CORRESPONDENCIA   EM ACRILICO, TIPO BANDEJA DUPLA   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA ARQUIVO, TIPO AZ, 350MM, 280MM, LOMBADA 85MM, COR CASTANHA    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA ARQUIVO PLASTICA/PVC, LARGURA 280 MM, ALTURA 390 MM, TIPO SANFONADA, INCOLOR, COM ELÁSTICO, 31 DIVISÓRIAS, VISOR E ETIQUETA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVELOPE , PAPEL KRAFT, 80 G/M2, SACO, 229X324 MM, PARDO  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA ARQUIVO  PLASTICO TRANSPARENTE TIPO L,  21MM, 330MM, INCOLOR, CRISTALIZADA.        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA CATALOGO  PAPELAO REVESTIDO EM PVC, NA COR PRETA, MEDINDO 250MM(LAR) X 345MM(ALT) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVELOPE  PAPEL KRAFT, 110G/M2, 360 X 260MM, COM BRASAO E IMPRESSAO DO SERVICO PUBLICO FEDERAL, PARDA   </t>
-  </si>
-  <si>
-    <t>PRANCHETA PORTATIL EM ACRILICO FUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASTA ARQUIVO,CARTÃO PRENSADO PLASTIFICADO, AZ, 280MM, 350MM, LOMBADA DE 50MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS    </t>
+    <t>PERCEVEJO EM METAL NIQUELADO, 10 MM</t>
+  </si>
+  <si>
+    <t>CLIPE CLIPS METAL 8/0 CAIXA 25X1</t>
+  </si>
+  <si>
+    <t>CALCULADORA ELETRONICA, DE MESA, 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CABO AUDIO E VIDEO COBRE, APLICAÇÃO TRANSMISSÃO DADOS ATÉ 10,8GB/S,, DISPLAYPORT, CONECTORES R BR,HBR, HBR2,DISPLAYPORT, COMPRIMENTO 1,8 M</t>
+  </si>
+  <si>
+    <t>TIPO FONE HEADPHONE/DINÂMICO</t>
+  </si>
+  <si>
+    <t>FONE DE OUVIDO HEADSET</t>
+  </si>
+  <si>
+    <t>ARDUINO PLACA CONTROLADORA, PADRÃO INTERFACE ARDUINO UNO,, SISTEMA EMBARCADO PROGRAMÁVEL</t>
+  </si>
+  <si>
+    <t>MOUSE PAD APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO</t>
+  </si>
+  <si>
+    <t>PATCH PANEL COM 24 PORTAS, PARA CAT 6</t>
+  </si>
+  <si>
+    <t>CABO EXTENSOR FLEXIVEL, MED. 1,80M, PARA MONITOR DE VÍDEO.</t>
+  </si>
+  <si>
+    <t>APOIO PUNHO TECLADO EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTIC0, NA COR PRETA, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t>MOUSE TIPO USB ÓPTICO, MODELO PADRÃO MICROSOFT COMPATÍVEL COM MAC G3 E G4.</t>
+  </si>
+  <si>
+    <t>TECLADO PARA MICROCOMPUTADOR , PS/2 USB - STANDARD, ABNT 2</t>
+  </si>
+  <si>
+    <t>CARTUCHO PARA IMPRESSORA HP LASERJET, CF 213A 131A COR MARGENTA</t>
+  </si>
+  <si>
+    <t>CARTUCHO TONER IMPRESSORA HP REF.CARTUCHO 2 CF210A., REF.IMPRESSORA IMPRESSORA HP,, NA COR PRETO</t>
+  </si>
+  <si>
+    <t>CAIXA DE SOM 8W, USB</t>
+  </si>
+  <si>
+    <t>CABO DE VIDEO ADAPTADOR DISPLAYPORT / HDMI, CONECTOR DISPLAYPORT, MACHO, CONECTOR HDMI FÊMEA, 15CM</t>
+  </si>
+  <si>
+    <t>CABO TELEFONICOTIPO COBRE ELETROLÍTICO, MAT.ISOLAMENTO CONDUTOR PVC, COM QUANTIDADE PARES 2, TIPO CCI-50</t>
+  </si>
+  <si>
+    <t>CANETA LASER POINTER METAL, DISTÂNCIA MÍNIMA 15 M, 1 PILHA AAA</t>
+  </si>
+  <si>
+    <t>MARCADOR PARA CABOS E FIOS ELETRICOS APLICAÇÃO E IDENTIFICAÇÃO DE CABOS DE REDE,, PLÁSTICO RIGIDO COM PRESILIA, NUMERO DE 0 A 9</t>
+  </si>
+  <si>
+    <t>ARDUINO PLACA CONTROLADORA, 2560</t>
+  </si>
+  <si>
+    <t>MODULO ELETRÔNICO, MODELO WIFI ESP8266, CONECTOR MICRO-USB</t>
   </si>
   <si>
     <t>30.22.752</t>
@@ -1691,19 +1847,16 @@
     <t>DILUIDOR DE PRODUTO QU</t>
   </si>
   <si>
+    <t>30.24.2564</t>
+  </si>
+  <si>
+    <t>PREGO com cabe</t>
+  </si>
+  <si>
     <t>Pacote 1kg</t>
   </si>
   <si>
-    <t>30.24.2564</t>
-  </si>
-  <si>
-    <t>PREGO com cabe</t>
-  </si>
-  <si>
     <t>Metro</t>
-  </si>
-  <si>
-    <t>Pacote</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1736,13 +1889,17 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1784,12 +1941,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FFDA9694"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border/>
     <border>
       <right style="thin">
@@ -1811,12 +1968,40 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1848,7 +2033,7 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1872,59 +2057,41 @@
     <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="3" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="4" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="4" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="5" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="5" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2483,7 +2650,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="7">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -3027,7 +3194,7 @@
         <v>104</v>
       </c>
       <c r="F42" s="7">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="43">
@@ -3061,7 +3228,7 @@
         <v>108</v>
       </c>
       <c r="F44" s="7">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -3240,7 +3407,7 @@
         <v>106</v>
       </c>
       <c r="F54" s="7">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="55">
@@ -4644,7 +4811,7 @@
         <v>277</v>
       </c>
       <c r="F129" s="7">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>32</v>
@@ -5158,7 +5325,7 @@
         <v>327</v>
       </c>
       <c r="F155" s="7">
-        <v>80.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="156">
@@ -6528,6 +6695,58 @@
       </c>
       <c r="G226" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6">
+        <v>45145.683232916665</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F227" s="7">
+        <v>80.0</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H227" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I227" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="6">
+        <v>45145.68412181713</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F228" s="7">
+        <v>21.0</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I228" s="7">
+        <v>76.0</v>
       </c>
     </row>
   </sheetData>
@@ -6549,7 +6768,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="17" width="18.88"/>
-    <col customWidth="1" min="18" max="18" width="30.5"/>
+    <col customWidth="1" min="18" max="18" width="42.25"/>
     <col customWidth="1" min="19" max="26" width="18.88"/>
   </cols>
   <sheetData>
@@ -6600,16 +6819,16 @@
         <v>14</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="U1" s="15" t="s">
         <v>7</v>
@@ -6618,216 +6837,221 @@
         <v>5</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="X1" s="16" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>45141.45906684028</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3">
-        <v>56.0</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="A2" s="6">
+        <v>45142.40426658565</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="7">
+        <v>17.0</v>
+      </c>
       <c r="Q2" s="19">
-        <v>1769049.0</v>
+        <v>1085433.0</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+        <v>486</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>45141.46193885416</v>
+        <v>45141.50473767361</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F3" s="7">
-        <v>13.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="Q3" s="21">
-        <v>56588.0</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>482</v>
+        <v>459909.0</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>45141.462515844905</v>
+        <v>45141.48243934028</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q4" s="21">
-        <v>878910.0</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>483</v>
+        <v>622621.0</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>45141.46296578704</v>
+        <v>45141.49881425926</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="F5" s="7">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q5" s="21">
-        <v>128716.0</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>484</v>
+        <v>1081900.0</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>45141.46343225695</v>
+        <v>45142.4018896875</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>178</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="F6" s="7">
-        <v>10.0</v>
+        <v>1364.0</v>
       </c>
       <c r="Q6" s="21">
-        <v>61794.0</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>485</v>
+        <v>687480.0</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>45141.46909600694</v>
+        <v>45142.62993246528</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>193615.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>549738.0</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>45141.47247152778</v>
+        <v>45142.6311007176</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>463</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>1662317.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>587168.0</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>45141.47539266203</v>
+        <v>45142.60209712963</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>388</v>
       </c>
       <c r="F9" s="7">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>32</v>
@@ -6835,51 +7059,60 @@
       <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="24">
-        <v>1760637.0</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>488</v>
+      <c r="I9" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>311553.0</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>45141.476614479165</v>
+        <v>45141.47539266203</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>554065.0</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>489</v>
+        <v>15.0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>1760637.0</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>45141.48029412037</v>
+        <v>45141.494824733796</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F11" s="7">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>32</v>
@@ -6887,1336 +7120,1294 @@
       <c r="H11" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="I11" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="Q11" s="21">
-        <v>1164090.0</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>490</v>
+        <v>488763.0</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
-        <v>45141.4809459838</v>
+        <v>45142.60059268519</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>2000997.0</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>491</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>291870.0</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
-        <v>45141.48136949074</v>
+        <v>45141.49194396991</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>2000903.0</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>492</v>
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>974102.0</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>45141.48243934028</v>
+        <v>45141.49421534722</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q14" s="25">
-        <v>622621.0</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>493</v>
+        <v>9.0</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>974137.0</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
-        <v>45141.482732951394</v>
+        <v>45141.620437731486</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="F15" s="7">
-        <v>8.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="Q15" s="21">
-        <v>176303.0</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>494</v>
+        <v>889326.0</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>45141.48357643519</v>
+        <v>45141.48413445602</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>120898.0</v>
-      </c>
-      <c r="R16" s="20" t="s">
-        <v>495</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>1768182.0</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>45141.48413445602</v>
+        <v>45141.65340635416</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>1768182.0</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>496</v>
+        <v>124.0</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>1725904.0</v>
+      </c>
+      <c r="R17" s="22" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>45141.48651578704</v>
+        <v>45141.65167866898</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>2000717.0</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>498</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>1999559.0</v>
+      </c>
+      <c r="R18" s="22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>45141.48725672453</v>
+        <v>45141.65228920139</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>2000733.0</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>499</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>498</v>
+        <v>11.0</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>1771043.0</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
-        <v>45141.48909594907</v>
+        <v>45142.61500670139</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>52</v>
+      <c r="D20" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>2000741.0</v>
-      </c>
-      <c r="R20" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>498</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>1726072.0</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
-        <v>45141.49052247685</v>
+        <v>45142.626362546296</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>53</v>
+        <v>437</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>438</v>
       </c>
       <c r="F21" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>768200.0</v>
-      </c>
-      <c r="R21" s="20" t="s">
-        <v>501</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>1771116.0</v>
+      </c>
+      <c r="R21" s="22" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
-        <v>45141.49097085648</v>
+        <v>45142.62713122685</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>2000210.0</v>
-      </c>
-      <c r="R22" s="20" t="s">
-        <v>502</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>1052462.0</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>45141.49194396991</v>
+        <v>45141.50611478009</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>974102.0</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>503</v>
+        <v>19.0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>1999621.0</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>45141.492415671295</v>
+        <v>45141.509705613425</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F24" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>1999818.0</v>
-      </c>
-      <c r="R24" s="20" t="s">
-        <v>504</v>
+        <v>20.0</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>1999567.0</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>45141.49257850694</v>
+        <v>45141.50684962963</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>980226.0</v>
-      </c>
-      <c r="R25" s="20" t="s">
-        <v>505</v>
+        <v>20.0</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>1999591.0</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>45141.49271846065</v>
+        <v>45141.65694453704</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F26" s="7">
-        <v>50.0</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26" s="19">
-        <v>2001543.0</v>
-      </c>
-      <c r="R26" s="20" t="s">
-        <v>506</v>
+        <v>94.0</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>1999737.0</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>45141.49298297454</v>
+        <v>45141.482732951394</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="26">
-        <v>1771361.0</v>
-      </c>
-      <c r="R27" s="20" t="s">
-        <v>507</v>
+        <v>8.0</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>176303.0</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>45141.49357368056</v>
+        <v>45141.49052247685</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>2000202.0</v>
-      </c>
-      <c r="R28" s="20" t="s">
-        <v>508</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>768200.0</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>45141.49421534722</v>
+        <v>45141.492415671295</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F29" s="7">
         <v>9.0</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q29" s="21">
-        <v>974137.0</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>509</v>
+        <v>1999818.0</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>45141.494824733796</v>
+        <v>45142.62364611111</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="F30" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>74</v>
+        <v>36.0</v>
       </c>
       <c r="Q30" s="21">
-        <v>488763.0</v>
-      </c>
-      <c r="R30" s="20" t="s">
-        <v>510</v>
+        <v>1739832.0</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>45141.49612393518</v>
+        <v>45142.605918113426</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="F31" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>1023144.0</v>
-      </c>
-      <c r="R31" s="20" t="s">
-        <v>511</v>
+        <v>298.0</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>101915.0</v>
+      </c>
+      <c r="R31" s="26" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>45141.49691538194</v>
+        <v>45141.62711052083</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="F32" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>350575.0</v>
-      </c>
-      <c r="R32" s="20" t="s">
-        <v>512</v>
+        <v>3.0</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>1563963.0</v>
+      </c>
+      <c r="R32" s="22" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>45141.497859247684</v>
+        <v>45141.46343225695</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F33" s="7">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q33" s="21">
-        <v>58351.0</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>513</v>
+        <v>61794.0</v>
+      </c>
+      <c r="R33" s="22" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>45141.49881425926</v>
+        <v>45141.631263020834</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="F34" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="Q34" s="19">
-        <v>1081900.0</v>
-      </c>
-      <c r="R34" s="20" t="s">
-        <v>514</v>
+        <v>46.0</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>2000083.0</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>45141.50026971065</v>
+        <v>45141.50626333333</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F35" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>86</v>
+        <v>25.0</v>
       </c>
       <c r="Q35" s="21">
-        <v>1518569.0</v>
-      </c>
-      <c r="R35" s="20" t="s">
-        <v>515</v>
+        <v>1023063.0</v>
+      </c>
+      <c r="R35" s="22" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>45141.50073609954</v>
+        <v>45142.62680025463</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>87</v>
+        <v>441</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>442</v>
       </c>
       <c r="F36" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q36" s="19">
-        <v>1050044.0</v>
-      </c>
-      <c r="R36" s="29" t="s">
-        <v>516</v>
+        <v>5.0</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>362808.0</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>45141.50133296296</v>
+        <v>45142.62391490741</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="F37" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q37" s="19">
-        <v>435520.0</v>
-      </c>
-      <c r="R37" s="29" t="s">
-        <v>517</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q37" s="21">
+        <v>2000172.0</v>
+      </c>
+      <c r="R37" s="22" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>45141.503927858794</v>
+        <v>45141.64619847223</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="F38" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="Q38" s="19">
-        <v>2000296.0</v>
-      </c>
-      <c r="R38" s="30" t="s">
-        <v>518</v>
+        <v>309.0</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q38" s="21">
+        <v>110647.0</v>
+      </c>
+      <c r="R38" s="22" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>45141.50462373842</v>
+        <v>45142.62960068287</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>96</v>
+        <v>453</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>97</v>
+        <v>454</v>
       </c>
       <c r="F39" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="Q39" s="19">
-        <v>2000229.0</v>
-      </c>
-      <c r="R39" s="30" t="s">
-        <v>519</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q39" s="21">
+        <v>2000199.0</v>
+      </c>
+      <c r="R39" s="22" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>45141.50473767361</v>
+        <v>45141.49357368056</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F40" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q40" s="19">
-        <v>459909.0</v>
-      </c>
-      <c r="R40" s="31" t="s">
-        <v>520</v>
+        <v>6.0</v>
+      </c>
+      <c r="Q40" s="21">
+        <v>2000202.0</v>
+      </c>
+      <c r="R40" s="22" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>45141.50552342593</v>
+        <v>45141.49097085648</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F41" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>2000288.0</v>
-      </c>
-      <c r="R41" s="30" t="s">
-        <v>521</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q41" s="21">
+        <v>2000210.0</v>
+      </c>
+      <c r="R41" s="22" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>45141.505901365745</v>
+        <v>45141.51113358796</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F42" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="Q42" s="19">
-        <v>529699.0</v>
-      </c>
-      <c r="R42" s="29" t="s">
-        <v>522</v>
+        <v>18.0</v>
+      </c>
+      <c r="Q42" s="21">
+        <v>1555170.0</v>
+      </c>
+      <c r="R42" s="22" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>45141.50611478009</v>
+        <v>45141.50462373842</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F43" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="Q43" s="32">
-        <v>1999621.0</v>
-      </c>
-      <c r="R43" s="31" t="s">
-        <v>523</v>
+        <v>14.0</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>2000229.0</v>
+      </c>
+      <c r="R43" s="22" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>45141.50626333333</v>
+        <v>45141.50637055555</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F44" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="Q44" s="32">
-        <v>1999621.0</v>
-      </c>
-      <c r="R44" s="31" t="s">
-        <v>523</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>2000237.0</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>45141.50637055555</v>
+        <v>45141.50684721065</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F45" s="7">
         <v>7.0</v>
       </c>
-      <c r="Q45" s="19">
-        <v>2000237.0</v>
-      </c>
-      <c r="R45" s="30" t="s">
-        <v>524</v>
+      <c r="Q45" s="21">
+        <v>2000253.0</v>
+      </c>
+      <c r="R45" s="22" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
-        <v>45141.506812141204</v>
+        <v>45141.507580590274</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F46" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q46" s="19">
-        <v>47449.0</v>
-      </c>
-      <c r="R46" s="29" t="s">
-        <v>525</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>2000261.0</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>45141.50684721065</v>
+        <v>45141.50719446759</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F47" s="7">
         <v>7.0</v>
       </c>
-      <c r="Q47" s="19">
-        <v>2000253.0</v>
-      </c>
-      <c r="R47" s="30" t="s">
-        <v>526</v>
+      <c r="Q47" s="21">
+        <v>2000270.0</v>
+      </c>
+      <c r="R47" s="22" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6">
-        <v>45141.50684962963</v>
+        <v>45141.50552342593</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F48" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="Q48" s="32">
-        <v>1999591.0</v>
-      </c>
-      <c r="R48" s="31" t="s">
-        <v>527</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q48" s="21">
+        <v>2000288.0</v>
+      </c>
+      <c r="R48" s="22" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6">
-        <v>45141.50719446759</v>
+        <v>45141.49257850694</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="F49" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="Q49" s="19">
-        <v>2000270.0</v>
-      </c>
-      <c r="R49" s="30" t="s">
-        <v>528</v>
+        <v>3.0</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q49" s="21">
+        <v>980226.0</v>
+      </c>
+      <c r="R49" s="22" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>45141.50743158565</v>
+        <v>45142.405564479166</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="F50" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="Q50" s="19">
-        <v>879827.0</v>
-      </c>
-      <c r="R50" s="29" t="s">
-        <v>529</v>
+        <v>3.0</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>1730584.0</v>
+      </c>
+      <c r="R50" s="22" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6">
-        <v>45141.507580590274</v>
+        <v>45141.61738087963</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F51" s="7">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q51" s="21">
-        <v>2000261.0</v>
-      </c>
-      <c r="R51" s="33" t="s">
-        <v>530</v>
+        <v>1727150.0</v>
+      </c>
+      <c r="R51" s="22" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>45141.50910016204</v>
+        <v>45141.503927858794</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F52" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="Q52" s="19">
-        <v>2001519.0</v>
-      </c>
-      <c r="R52" s="29" t="s">
-        <v>531</v>
+        <v>24.0</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>2000296.0</v>
+      </c>
+      <c r="R52" s="22" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>45141.50968940972</v>
+        <v>45142.612739386575</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>126</v>
+        <v>409</v>
       </c>
       <c r="F53" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="Q53" s="19">
-        <v>462403.0</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>532</v>
+        <v>30.0</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>2000334.0</v>
+      </c>
+      <c r="R53" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>45141.509705613425</v>
+        <v>45141.62200137731</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="F54" s="7">
         <v>20.0</v>
       </c>
-      <c r="Q54" s="32">
-        <v>1999567.0</v>
-      </c>
-      <c r="R54" s="34" t="s">
-        <v>533</v>
+      <c r="G54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>2000369.0</v>
+      </c>
+      <c r="R54" s="22" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>45141.510407696755</v>
+        <v>45142.409698483796</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="F55" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q55" s="19">
-        <v>2001535.0</v>
-      </c>
-      <c r="R55" s="29" t="s">
-        <v>534</v>
+        <v>97.0</v>
+      </c>
+      <c r="Q55" s="21">
+        <v>2000407.0</v>
+      </c>
+      <c r="R55" s="22" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>45141.51113358796</v>
+        <v>45141.6266038426</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F56" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="Q56" s="19">
-        <v>1555170.0</v>
-      </c>
-      <c r="R56" s="30" t="s">
-        <v>535</v>
+        <v>75.0</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>916960.0</v>
+      </c>
+      <c r="R56" s="22" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>45141.51382594908</v>
+        <v>45141.48357643519</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="F57" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="Q57" s="19">
-        <v>477540.0</v>
-      </c>
-      <c r="R57" s="29" t="s">
-        <v>536</v>
+        <v>4.0</v>
+      </c>
+      <c r="Q57" s="27">
+        <v>120898.0</v>
+      </c>
+      <c r="R57" s="28" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>45141.514126863425</v>
+        <v>45142.60259476852</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>135</v>
+        <v>390</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>136</v>
+        <v>391</v>
       </c>
       <c r="F58" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="Q58" s="19">
-        <v>2001527.0</v>
-      </c>
-      <c r="R58" s="29" t="s">
-        <v>537</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q58" s="21">
+        <v>390259.0</v>
+      </c>
+      <c r="R58" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>45141.6074553588</v>
+        <v>45141.48651578704</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>137</v>
+        <v>29</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="F59" s="7">
-        <v>36.0</v>
-      </c>
-      <c r="Q59" s="19">
-        <v>685224.0</v>
-      </c>
-      <c r="R59" s="29" t="s">
-        <v>538</v>
+        <v>5.0</v>
+      </c>
+      <c r="Q59" s="21">
+        <v>2000717.0</v>
+      </c>
+      <c r="R59" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>45141.613340497686</v>
+        <v>45141.48909594907</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>139</v>
+      <c r="D60" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F60" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="Q60" s="19">
-        <v>1023039.0</v>
-      </c>
-      <c r="R60" s="29" t="s">
-        <v>539</v>
+        <v>5.0</v>
+      </c>
+      <c r="Q60" s="21">
+        <v>2000733.0</v>
+      </c>
+      <c r="R60" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>45141.616049178236</v>
+        <v>45141.48725672453</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>141</v>
+        <v>29</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="F61" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="Q61" s="19">
-        <v>475610.0</v>
-      </c>
-      <c r="R61" s="29" t="s">
-        <v>540</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>2000741.0</v>
+      </c>
+      <c r="R61" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>45141.61738087963</v>
+        <v>45141.62418645833</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F62" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="Q62" s="19">
-        <v>1727150.0</v>
-      </c>
-      <c r="R62" s="30" t="s">
-        <v>541</v>
+        <v>20.0</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>356042.0</v>
+      </c>
+      <c r="R62" s="23" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>45141.619833275465</v>
+        <v>45141.62343869213</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F63" s="7">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>32</v>
@@ -8225,94 +8416,76 @@
         <v>33</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q63" s="19">
-        <v>2001497.0</v>
-      </c>
-      <c r="R63" s="29" t="s">
-        <v>542</v>
+        <v>155</v>
+      </c>
+      <c r="Q63" s="21">
+        <v>2000750.0</v>
+      </c>
+      <c r="R63" s="23" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>45141.620437731486</v>
+        <v>45142.62522105324</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>149</v>
+        <v>434</v>
       </c>
       <c r="F64" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>150</v>
+        <v>16.0</v>
       </c>
       <c r="Q64" s="21">
-        <v>889326.0</v>
-      </c>
-      <c r="R64" s="33" t="s">
-        <v>543</v>
+        <v>2000822.0</v>
+      </c>
+      <c r="R64" s="22" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>45141.62200137731</v>
+        <v>45141.48136949074</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F65" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="Q65" s="19">
-        <v>2000369.0</v>
-      </c>
-      <c r="R65" s="30" t="s">
-        <v>544</v>
+        <v>27.0</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>2000903.0</v>
+      </c>
+      <c r="R65" s="22" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>45141.62343869213</v>
+        <v>45142.630702511575</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>154</v>
+        <v>461</v>
       </c>
       <c r="F66" s="7">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>32</v>
@@ -8321,30 +8494,30 @@
         <v>33</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>155</v>
+        <v>462</v>
       </c>
       <c r="Q66" s="21">
-        <v>2000750.0</v>
-      </c>
-      <c r="R66" s="35" t="s">
-        <v>545</v>
+        <v>1487906.0</v>
+      </c>
+      <c r="R66" s="23" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>45141.62418645833</v>
+        <v>45141.4809459838</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="F67" s="7">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>32</v>
@@ -8352,92 +8525,80 @@
       <c r="H67" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="7">
-        <v>1.0</v>
-      </c>
       <c r="Q67" s="21">
-        <v>356042.0</v>
-      </c>
-      <c r="R67" s="35" t="s">
-        <v>546</v>
+        <v>2000997.0</v>
+      </c>
+      <c r="R67" s="23" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>45141.6266038426</v>
+        <v>45141.46193885416</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F68" s="7">
-        <v>75.0</v>
-      </c>
-      <c r="Q68" s="19">
-        <v>916960.0</v>
-      </c>
-      <c r="R68" s="30" t="s">
-        <v>547</v>
+        <v>13.0</v>
+      </c>
+      <c r="Q68" s="21">
+        <v>56588.0</v>
+      </c>
+      <c r="R68" s="23" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>45141.62711052083</v>
+        <v>45141.462515844905</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="F69" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="Q69" s="19">
-        <v>1563963.0</v>
-      </c>
-      <c r="R69" s="30" t="s">
-        <v>548</v>
+        <v>6.0</v>
+      </c>
+      <c r="Q69" s="21">
+        <v>878910.0</v>
+      </c>
+      <c r="R69" s="23" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>45141.631263020834</v>
+        <v>45141.46296578704</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="F70" s="7">
-        <v>46.0</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="Q70" s="19">
-        <v>2000083.0</v>
-      </c>
-      <c r="R70" s="30" t="s">
-        <v>549</v>
+        <v>7.0</v>
+      </c>
+      <c r="Q70" s="21">
+        <v>128716.0</v>
+      </c>
+      <c r="R70" s="23" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="71">
@@ -8456,553 +8617,740 @@
       <c r="F71" s="7">
         <v>31.0</v>
       </c>
-      <c r="Q71" s="19">
+      <c r="Q71" s="21">
         <v>2001462.0</v>
       </c>
-      <c r="R71" s="29" t="s">
-        <v>550</v>
+      <c r="R71" s="23" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6">
-        <v>45141.64619847223</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F72" s="7">
-        <v>309.0</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q72" s="19">
-        <v>110647.0</v>
-      </c>
-      <c r="R72" s="30" t="s">
-        <v>551</v>
-      </c>
+      <c r="A72" s="2">
+        <v>45141.45906684028</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="3">
+        <v>56.0</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="21">
+        <v>1769049.0</v>
+      </c>
+      <c r="R72" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>45141.65167866898</v>
+        <v>45141.65409188658</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F73" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="Q73" s="19">
-        <v>1999559.0</v>
-      </c>
-      <c r="R73" s="30" t="s">
-        <v>552</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q73" s="21">
+        <v>1146270.0</v>
+      </c>
+      <c r="R73" s="23" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>45141.65228920139</v>
+        <v>45141.48029412037</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="F74" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="Q74" s="19">
-        <v>1771043.0</v>
-      </c>
-      <c r="R74" s="30" t="s">
-        <v>553</v>
+        <v>15.0</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="21">
+        <v>1164090.0</v>
+      </c>
+      <c r="R74" s="23" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>45141.65340635416</v>
+        <v>45142.62336046297</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>173</v>
+        <v>427</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>174</v>
+        <v>428</v>
       </c>
       <c r="F75" s="7">
-        <v>124.0</v>
-      </c>
-      <c r="Q75" s="19">
-        <v>1725904.0</v>
-      </c>
-      <c r="R75" s="30" t="s">
-        <v>554</v>
+        <v>26.0</v>
+      </c>
+      <c r="Q75" s="21">
+        <v>318264.0</v>
+      </c>
+      <c r="R75" s="23" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>45141.65409188658</v>
+        <v>45141.46909600694</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D76" s="7" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="F76" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="Q76" s="32">
-        <v>1146270.0</v>
-      </c>
-      <c r="R76" s="34" t="s">
-        <v>555</v>
+        <v>4.0</v>
+      </c>
+      <c r="Q76" s="27">
+        <v>193615.0</v>
+      </c>
+      <c r="R76" s="25" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>45141.65694453704</v>
+        <v>45141.47247152778</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F77" s="7">
-        <v>94.0</v>
-      </c>
-      <c r="Q77" s="19">
-        <v>1999737.0</v>
-      </c>
-      <c r="R77" s="30" t="s">
-        <v>556</v>
+        <v>4.0</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>1662317.0</v>
+      </c>
+      <c r="R77" s="23" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>45142.4018896875</v>
+        <v>45142.60110733796</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>179</v>
+        <v>382</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="F78" s="7">
-        <v>1364.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>998338.0</v>
+      </c>
+      <c r="R78" s="23" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>45142.40426658565</v>
+        <v>45142.601479606485</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>180</v>
+      <c r="D79" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>181</v>
+        <v>386</v>
       </c>
       <c r="F79" s="7">
-        <v>17.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>2001470.0</v>
+      </c>
+      <c r="R79" s="23" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>45142.404641851856</v>
+        <v>45141.505901365745</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="F80" s="7">
-        <v>2.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>529699.0</v>
+      </c>
+      <c r="R80" s="23" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>45142.405564479166</v>
+        <v>45141.616049178236</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="F81" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>186</v>
+        <v>30.0</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>475610.0</v>
+      </c>
+      <c r="R81" s="23" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>45142.409698483796</v>
+        <v>45142.60361936342</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="F82" s="7">
-        <v>97.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>1102001.0</v>
+      </c>
+      <c r="R82" s="23" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>45142.41105607639</v>
+        <v>45141.619833275465</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="F83" s="7">
-        <v>5.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>2001497.0</v>
+      </c>
+      <c r="R83" s="23" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>45142.411584710644</v>
+        <v>45142.629090682865</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>190</v>
+        <v>451</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>191</v>
+        <v>452</v>
       </c>
       <c r="F84" s="7">
-        <v>4.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q84" s="21">
+        <v>178284.0</v>
+      </c>
+      <c r="R84" s="23" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>45142.41217725695</v>
+        <v>45142.627637638885</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>192</v>
+        <v>447</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>193</v>
+        <v>448</v>
       </c>
       <c r="F85" s="7">
-        <v>2.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="Q85" s="21">
+        <v>2001500.0</v>
+      </c>
+      <c r="R85" s="23" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>45142.41274181713</v>
+        <v>45141.50133296296</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="F86" s="7">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q86" s="21">
+        <v>435520.0</v>
+      </c>
+      <c r="R86" s="23" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>45142.413222523144</v>
+        <v>45141.50026971065</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="F87" s="7">
-        <v>3.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q87" s="21">
+        <v>1518569.0</v>
+      </c>
+      <c r="R87" s="23" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>45142.41395785879</v>
+        <v>45141.50073609954</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F88" s="7">
-        <v>31.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q88" s="21">
+        <v>1050044.0</v>
+      </c>
+      <c r="R88" s="23" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>45142.41441940972</v>
+        <v>45141.50743158565</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>557</v>
+        <v>119</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>558</v>
+        <v>120</v>
       </c>
       <c r="F89" s="7">
-        <v>1.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q89" s="21">
+        <v>879827.0</v>
+      </c>
+      <c r="R89" s="23" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>45142.41483068287</v>
+        <v>45141.6074553588</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="F90" s="7">
-        <v>5.0</v>
+        <v>36.0</v>
+      </c>
+      <c r="Q90" s="21">
+        <v>685224.0</v>
+      </c>
+      <c r="R90" s="23" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>45142.415316412036</v>
+        <v>45141.50968940972</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="F91" s="7">
-        <v>73.0</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>203</v>
+        <v>17.0</v>
+      </c>
+      <c r="Q91" s="21">
+        <v>462403.0</v>
+      </c>
+      <c r="R91" s="23" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>45142.4179162037</v>
+        <v>45141.51382594908</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="F92" s="7">
-        <v>34.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="Q92" s="21">
+        <v>477540.0</v>
+      </c>
+      <c r="R92" s="23" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>45142.41870454861</v>
+        <v>45141.50910016204</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="F93" s="7">
-        <v>17.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Q93" s="21">
+        <v>2001519.0</v>
+      </c>
+      <c r="R93" s="23" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>45142.419130625</v>
+        <v>45141.514126863425</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="F94" s="7">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="Q94" s="21">
+        <v>2001527.0</v>
+      </c>
+      <c r="R94" s="23" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>45142.41976953704</v>
+        <v>45141.497859247684</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="F95" s="7">
-        <v>19.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Q95" s="21">
+        <v>58351.0</v>
+      </c>
+      <c r="R95" s="23" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>45142.4203203125</v>
+        <v>45141.510407696755</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="F96" s="7">
-        <v>17.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q96" s="21">
+        <v>2001535.0</v>
+      </c>
+      <c r="R96" s="23" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>45142.42217186342</v>
+        <v>45141.506812141204</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>214</v>
+        <v>111</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="F97" s="7">
-        <v>22.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q97" s="21">
+        <v>47449.0</v>
+      </c>
+      <c r="R97" s="23" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>45142.42288481482</v>
+        <v>45141.476614479165</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="F98" s="7">
-        <v>57.0</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>217</v>
+        <v>22.0</v>
+      </c>
+      <c r="Q98" s="21">
+        <v>554065.0</v>
+      </c>
+      <c r="R98" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>45142.42389402778</v>
+        <v>45141.49271846065</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="F99" s="7">
-        <v>573.0</v>
+        <v>50.0</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>32</v>
@@ -9011,418 +9359,619 @@
         <v>33</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>220</v>
+        <v>66</v>
+      </c>
+      <c r="Q99" s="21">
+        <v>2001543.0</v>
+      </c>
+      <c r="R99" s="23" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>45142.424520659726</v>
+        <v>45141.49298297454</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="F100" s="7">
-        <v>15.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q100" s="27">
+        <v>1771361.0</v>
+      </c>
+      <c r="R100" s="25" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>45142.424874062504</v>
+        <v>45141.49691538194</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="F101" s="7">
-        <v>10.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="21">
+        <v>350575.0</v>
+      </c>
+      <c r="R101" s="23" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>45142.431871608795</v>
+        <v>45141.49612393518</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="F102" s="7">
-        <v>40.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="27">
+        <v>1023144.0</v>
+      </c>
+      <c r="R102" s="25" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>45142.43236623843</v>
+        <v>45141.613340497686</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="F103" s="7">
-        <v>44.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Q103" s="21">
+        <v>1023039.0</v>
+      </c>
+      <c r="R103" s="23" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>45142.432905671296</v>
+        <v>45142.614222662036</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="F104" s="7">
-        <v>9.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q104" s="21">
+        <v>2001551.0</v>
+      </c>
+      <c r="R104" s="23" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>45142.43369664352</v>
+        <v>45142.62010475695</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>231</v>
+        <v>423</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>232</v>
+        <v>424</v>
       </c>
       <c r="F105" s="7">
-        <v>47.0</v>
+        <v>40.0</v>
+      </c>
+      <c r="Q105" s="27">
+        <v>2001560.0</v>
+      </c>
+      <c r="R105" s="25" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>45142.43429990741</v>
+        <v>45142.62268490741</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>233</v>
+        <v>425</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="F106" s="7">
-        <v>17.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q106" s="21">
+        <v>916030.0</v>
+      </c>
+      <c r="R106" s="23" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>45142.435498217594</v>
+        <v>45142.627279340275</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>234</v>
+        <v>445</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>235</v>
+        <v>446</v>
       </c>
       <c r="F107" s="7">
-        <v>100.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q107" s="21">
+        <v>1737317.0</v>
+      </c>
+      <c r="R107" s="23" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>45142.43625853009</v>
+        <v>45142.63423894676</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>236</v>
+        <v>472</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>237</v>
+        <v>473</v>
       </c>
       <c r="F108" s="7">
-        <v>82.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q108" s="21">
+        <v>2001578.0</v>
+      </c>
+      <c r="R108" s="23" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>45142.437079675925</v>
+        <v>45142.60411572916</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="F109" s="7">
-        <v>5.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q109" s="27">
+        <v>1745085.0</v>
+      </c>
+      <c r="R109" s="25" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>45142.43763564815</v>
+        <v>45142.634228703704</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>241</v>
+        <v>471</v>
       </c>
       <c r="F110" s="7">
-        <v>97.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="Q110" s="21">
+        <v>2001586.0</v>
+      </c>
+      <c r="R110" s="23" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>45142.43913829861</v>
+        <v>45142.63039542824</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>242</v>
+        <v>458</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>243</v>
+        <v>459</v>
       </c>
       <c r="F111" s="7">
-        <v>2.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q111" s="21">
+        <v>2001594.0</v>
+      </c>
+      <c r="R111" s="23" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>45142.43952591435</v>
+        <v>45142.6044781713</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>244</v>
+        <v>398</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="F112" s="7">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Q112" s="21">
+        <v>2001624.0</v>
+      </c>
+      <c r="R112" s="23" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>45142.44616626158</v>
+        <v>45142.60514402778</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>245</v>
+        <v>400</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="F113" s="7">
-        <v>68.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="Q113" s="21">
+        <v>754153.0</v>
+      </c>
+      <c r="R113" s="23" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>45142.44655177083</v>
+        <v>45142.61605790509</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>246</v>
+        <v>418</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>237</v>
+        <v>417</v>
       </c>
       <c r="F114" s="7">
-        <v>40.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Q114" s="21">
+        <v>1727508.0</v>
+      </c>
+      <c r="R114" s="23" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>45142.447905740744</v>
+        <v>45142.615761180554</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="F115" s="7">
-        <v>4.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Q115" s="21">
+        <v>2001632.0</v>
+      </c>
+      <c r="R115" s="23" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>45142.44825568287</v>
+        <v>45142.610586192124</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="F116" s="7">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q116" s="21">
+        <v>806960.0</v>
+      </c>
+      <c r="R116" s="23" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>45142.45083065973</v>
+        <v>45142.61682072916</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
       <c r="F117" s="7">
-        <v>2.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q117" s="21">
+        <v>1736817.0</v>
+      </c>
+      <c r="R117" s="23" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>45142.45126350694</v>
+        <v>45142.6315544213</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="F118" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q118" s="21">
+        <v>2001640.0</v>
+      </c>
+      <c r="R118" s="23" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>45142.4518412037</v>
+        <v>45142.61800422454</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>254</v>
+        <v>421</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="F119" s="7">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q119" s="21">
+        <v>1814885.0</v>
+      </c>
+      <c r="R119" s="23" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>45142.45344074074</v>
+        <v>45142.6154149537</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>256</v>
+        <v>414</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>50</v>
+        <v>415</v>
       </c>
       <c r="F120" s="7">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q120" s="21">
+        <v>2001659.0</v>
+      </c>
+      <c r="R120" s="23" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>45142.45550049769</v>
+        <v>45142.63190922454</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>257</v>
+        <v>468</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
       <c r="F121" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S121" s="7" t="s">
-        <v>559</v>
+        <v>2.0</v>
+      </c>
+      <c r="Q121" s="21">
+        <v>754153.0</v>
+      </c>
+      <c r="R121" s="23" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>45142.456971527776</v>
+        <v>45142.628952430554</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>259</v>
+        <v>449</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="F122" s="7">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="Q122" s="21">
+        <v>1136046.0</v>
+      </c>
+      <c r="R122" s="23" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>45142.45760363426</v>
+        <v>45142.626762291664</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>261</v>
+        <v>439</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>262</v>
+        <v>440</v>
       </c>
       <c r="F123" s="7">
         <v>10.0</v>
@@ -9430,1271 +9979,1273 @@
       <c r="G123" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="Q123" s="21">
+        <v>1737406.0</v>
+      </c>
+      <c r="R123" s="23" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>45142.45843211806</v>
+        <v>45142.58376126157</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="F124" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="R124" s="29"/>
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>45142.459293935186</v>
+        <v>45142.415316412036</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="F125" s="7">
-        <v>5.0</v>
+        <v>73.0</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H125" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I125" s="7" t="s">
-        <v>267</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="R125" s="29"/>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>45142.45948994213</v>
+        <v>45142.42288481482</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>560</v>
+        <v>215</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>561</v>
+        <v>216</v>
       </c>
       <c r="F126" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S126" s="7" t="s">
-        <v>559</v>
-      </c>
+        <v>57.0</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="R126" s="29"/>
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>45142.460168460646</v>
+        <v>45142.43236623843</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="F127" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S127" s="7"/>
+        <v>44.0</v>
+      </c>
+      <c r="R127" s="29"/>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>45142.461301504634</v>
+        <v>45142.43952591435</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="F128" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="R128" s="29"/>
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>45142.462957129625</v>
+        <v>45142.43429990741</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="F129" s="7">
-        <v>29.0</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>17.0</v>
+      </c>
+      <c r="R129" s="29"/>
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>45142.46350106482</v>
+        <v>45142.58664657407</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="F130" s="7">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H130" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="R130" s="29"/>
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>45142.46440195602</v>
+        <v>45142.44616626158</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="F131" s="7">
-        <v>29.0</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>68.0</v>
+      </c>
+      <c r="R131" s="29"/>
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>45142.46551918982</v>
+        <v>45142.4179162037</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="F132" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>280</v>
-      </c>
+        <v>34.0</v>
+      </c>
+      <c r="R132" s="29"/>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>45142.466390960646</v>
+        <v>45142.41870454861</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="F133" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>17.0</v>
+      </c>
+      <c r="R133" s="29"/>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>45142.46715090278</v>
+        <v>45142.42389402778</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="F134" s="7">
-        <v>7.0</v>
+        <v>573.0</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H134" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="R134" s="29"/>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>45142.4678671875</v>
+        <v>45142.44655177083</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="F135" s="7">
-        <v>53.0</v>
-      </c>
+        <v>40.0</v>
+      </c>
+      <c r="R135" s="29"/>
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>45142.46841420139</v>
+        <v>45142.58780825231</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="F136" s="7">
-        <v>8.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="R136" s="29"/>
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>45142.4690505787</v>
+        <v>45142.47208782408</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F137" s="7">
-        <v>50.0</v>
-      </c>
-      <c r="S137" s="7" t="s">
-        <v>562</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="R137" s="29"/>
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>45142.4714107176</v>
+        <v>45142.473071782406</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F138" s="7">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H138" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I138" s="7">
+        <v>58.0</v>
+      </c>
+      <c r="R138" s="29"/>
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>45142.47157978009</v>
+        <v>45142.424874062504</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="F139" s="7">
-        <v>77.0</v>
-      </c>
+        <v>10.0</v>
+      </c>
+      <c r="R139" s="29"/>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>45142.47208782408</v>
+        <v>45142.419130625</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="F140" s="7">
-        <v>8.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R140" s="29"/>
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>45142.47214809028</v>
+        <v>45142.59960295139</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="F141" s="7">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H141" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="R141" s="29"/>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>45142.47257278935</v>
+        <v>45142.4203203125</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="F142" s="7">
-        <v>71.0</v>
-      </c>
+        <v>17.0</v>
+      </c>
+      <c r="R142" s="29"/>
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>45142.473071782406</v>
+        <v>45142.413222523144</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="F143" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I143" s="7">
-        <v>58.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="R143" s="29"/>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>45142.4736741088</v>
+        <v>45142.46551918982</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="F144" s="7">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H144" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="R144" s="29"/>
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>45142.473856550925</v>
+        <v>45142.41976953704</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="F145" s="7">
-        <v>1.0</v>
-      </c>
+        <v>19.0</v>
+      </c>
+      <c r="R145" s="29"/>
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>45142.47437939815</v>
+        <v>45142.431871608795</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="F146" s="7">
-        <v>13.0</v>
-      </c>
+        <v>40.0</v>
+      </c>
+      <c r="R146" s="29"/>
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>45142.47478936343</v>
+        <v>45142.41274181713</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>306</v>
+        <v>195</v>
       </c>
       <c r="F147" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>18.0</v>
+      </c>
+      <c r="R147" s="29"/>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>45142.47788167824</v>
+        <v>45142.43763564815</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="F148" s="7">
-        <v>25.0</v>
-      </c>
+        <v>97.0</v>
+      </c>
+      <c r="R148" s="29"/>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>45142.47865936343</v>
+        <v>45142.404641851856</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>309</v>
+        <v>182</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
       <c r="F149" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="R149" s="29"/>
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>45142.4795428588</v>
+        <v>45142.60283050926</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="F150" s="7">
-        <v>8.0</v>
+        <v>46.0</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R150" s="29"/>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>45142.48026438657</v>
+        <v>45142.58456966435</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F151" s="7">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H151" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I151" s="7">
+        <v>289.0</v>
+      </c>
+      <c r="R151" s="29"/>
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>45142.58376126157</v>
+        <v>45142.43625853009</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="F152" s="7">
-        <v>5.0</v>
-      </c>
+        <v>82.0</v>
+      </c>
+      <c r="R152" s="29"/>
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>45142.584225451385</v>
+        <v>45142.41217725695</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="F153" s="7">
-        <v>5.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="R153" s="29"/>
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>45142.58456966435</v>
+        <v>45142.60607439815</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="F154" s="7">
-        <v>1.0</v>
+        <v>63.0</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H154" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I154" s="7">
-        <v>289.0</v>
-      </c>
+      <c r="R154" s="29"/>
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>45142.58486619213</v>
+        <v>45142.437079675925</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="F155" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="R155" s="29"/>
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>45142.585029375</v>
+        <v>45142.411584710644</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="F156" s="7">
-        <v>54.0</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>325</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="R156" s="29"/>
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>45142.585389768516</v>
+        <v>45142.41105607639</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>327</v>
+        <v>189</v>
       </c>
       <c r="F157" s="7">
-        <v>80.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="R157" s="29"/>
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>45142.585777037035</v>
+        <v>45142.41441940972</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>328</v>
+        <v>609</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>329</v>
+        <v>610</v>
       </c>
       <c r="F158" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R158" s="29"/>
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>45142.58664657407</v>
+        <v>45142.42217186342</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="F159" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>332</v>
-      </c>
+        <v>22.0</v>
+      </c>
+      <c r="R159" s="29"/>
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>45142.58666010416</v>
+        <v>45142.41483068287</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="F160" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="R160" s="29"/>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>45142.58750083334</v>
+        <v>45142.435498217594</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="F161" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>100.0</v>
+      </c>
+      <c r="R161" s="29"/>
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>45142.58780825231</v>
+        <v>45142.41395785879</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>338</v>
+        <v>198</v>
       </c>
       <c r="F162" s="7">
-        <v>2.0</v>
-      </c>
+        <v>31.0</v>
+      </c>
+      <c r="R162" s="29"/>
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>45142.58832199074</v>
+        <v>45142.432905671296</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="F163" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>9.0</v>
+      </c>
+      <c r="R163" s="29"/>
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>45142.58884622685</v>
+        <v>45142.424520659726</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c r="F164" s="7">
-        <v>4.0</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="R164" s="29"/>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>45142.589577164355</v>
+        <v>45142.43369664352</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="F165" s="7">
-        <v>15.0</v>
-      </c>
+        <v>47.0</v>
+      </c>
+      <c r="R165" s="29"/>
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>45142.58982861111</v>
+        <v>45142.584225451385</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="F166" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="R166" s="29"/>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>45142.59077152778</v>
+        <v>45142.595887557865</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="F167" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="R167" s="29"/>
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>45142.59258416666</v>
+        <v>45142.59854097222</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="D168" s="7" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="F168" s="7">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R168" s="29"/>
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>45142.59397890046</v>
+        <v>45142.589577164355</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F169" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="R169" s="29"/>
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>45142.594296979165</v>
+        <v>45142.58982861111</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F170" s="7">
-        <v>4.0</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R170" s="29"/>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>45142.59469439815</v>
+        <v>45142.59632748843</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F171" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="R171" s="29"/>
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>45142.59477814815</v>
+        <v>45142.47257278935</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="F172" s="7">
-        <v>3.0</v>
-      </c>
+        <v>71.0</v>
+      </c>
+      <c r="R172" s="29"/>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>45142.59517539352</v>
+        <v>45142.47157978009</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>357</v>
+        <v>290</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="F173" s="7">
-        <v>1.0</v>
-      </c>
+        <v>77.0</v>
+      </c>
+      <c r="R173" s="29"/>
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>45142.595696006945</v>
+        <v>45142.59727940972</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F174" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>78.0</v>
+      </c>
+      <c r="R174" s="29"/>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>45142.595887557865</v>
+        <v>45142.58832199074</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F175" s="7">
-        <v>7.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R175" s="29"/>
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>45142.59632748843</v>
+        <v>45142.585389768516</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="F176" s="7">
-        <v>2.0</v>
-      </c>
+        <v>80.0</v>
+      </c>
+      <c r="R176" s="29"/>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>45142.59684637732</v>
+        <v>45142.48026438657</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="F177" s="7">
-        <v>16.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R177" s="29"/>
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>45142.596969791666</v>
+        <v>45142.4795428588</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="F178" s="7">
-        <v>30.0</v>
+        <v>8.0</v>
       </c>
       <c r="G178" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R178" s="29"/>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>45142.59727940972</v>
+        <v>45142.47865936343</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="F179" s="7">
-        <v>78.0</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R179" s="29"/>
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>45142.59854097222</v>
+        <v>45142.45948994213</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>371</v>
+        <v>611</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>372</v>
+        <v>612</v>
       </c>
       <c r="F180" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>32</v>
+        <v>1.0</v>
+      </c>
+      <c r="R180" s="29"/>
+      <c r="S180" s="7" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>45142.59884693287</v>
+        <v>45142.58486619213</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="F181" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H181" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I181" s="7">
-        <v>18.0</v>
-      </c>
+      <c r="R181" s="29"/>
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>45142.59955204861</v>
+        <v>45142.58666010416</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="F182" s="7">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G182" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R182" s="29"/>
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>45142.59960295139</v>
+        <v>45142.47214809028</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="F183" s="7">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H183" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>379</v>
-      </c>
+      <c r="R183" s="29"/>
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>45142.60059268519</v>
+        <v>45142.4736741088</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="F184" s="7">
-        <v>2.0</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R184" s="29"/>
     </row>
     <row r="185">
       <c r="A185" s="6">
-        <v>45142.60110733796</v>
+        <v>45142.4714107176</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>382</v>
+        <v>288</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="F185" s="7">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H185" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I185" s="7" t="s">
-        <v>384</v>
-      </c>
+      <c r="R185" s="29"/>
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>45142.601479606485</v>
+        <v>45142.585777037035</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="F186" s="7">
-        <v>12.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R186" s="29"/>
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>45142.60209712963</v>
+        <v>45142.585029375</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="F187" s="7">
-        <v>13.0</v>
+        <v>54.0</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>32</v>
@@ -10702,537 +11253,572 @@
       <c r="H187" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I187" s="9" t="s">
-        <v>389</v>
-      </c>
+      <c r="I187" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="R187" s="29"/>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>45142.60259476852</v>
+        <v>45142.45550049769</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="F188" s="7">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R188" s="29"/>
       <c r="S188" s="7" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>45142.60283050926</v>
+        <v>45142.59684637732</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="F189" s="7">
-        <v>46.0</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>16.0</v>
+      </c>
+      <c r="R189" s="29"/>
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>45142.60361936342</v>
+        <v>45142.58750083334</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="F190" s="7">
         <v>3.0</v>
       </c>
+      <c r="G190" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R190" s="29"/>
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>45142.60411572916</v>
+        <v>45142.47478936343</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="F191" s="7">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="G191" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H191" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I191" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="R191" s="29"/>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>45142.6044781713</v>
+        <v>45142.46350106482</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>398</v>
+        <v>274</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="F192" s="7">
-        <v>3.0</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R192" s="29"/>
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>45142.60514402778</v>
+        <v>45142.46440195602</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>400</v>
+        <v>276</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>401</v>
+        <v>277</v>
       </c>
       <c r="F193" s="7">
-        <v>5.0</v>
-      </c>
+        <v>29.0</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R193" s="29"/>
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>45142.605918113426</v>
+        <v>45142.466390960646</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>403</v>
+        <v>277</v>
       </c>
       <c r="F194" s="7">
-        <v>298.0</v>
-      </c>
+        <v>30.0</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R194" s="29"/>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>45142.60607439815</v>
+        <v>45142.59884693287</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="F195" s="7">
-        <v>63.0</v>
+        <v>3.0</v>
       </c>
       <c r="G195" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="H195" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I195" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="R195" s="29"/>
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>45142.610586192124</v>
+        <v>45142.44825568287</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>406</v>
+        <v>249</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="F196" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R196" s="29"/>
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>45142.612739386575</v>
+        <v>45142.59077152778</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="F197" s="7">
-        <v>30.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R197" s="29"/>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>45142.614222662036</v>
+        <v>45142.59258416666</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="C198" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D198" s="7" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="F198" s="7">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="G198" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R198" s="29"/>
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>45142.61500670139</v>
+        <v>45142.45344074074</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>412</v>
+        <v>256</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>413</v>
+        <v>50</v>
       </c>
       <c r="F199" s="7">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R199" s="29"/>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>45142.6154149537</v>
+        <v>45142.59955204861</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="F200" s="7">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G200" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R200" s="29"/>
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>45142.615761180554</v>
+        <v>45142.46841420139</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>416</v>
+        <v>284</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>417</v>
+        <v>285</v>
       </c>
       <c r="F201" s="7">
-        <v>3.0</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="R201" s="29"/>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>45142.61605790509</v>
+        <v>45142.4518412037</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>418</v>
+        <v>254</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>417</v>
+        <v>255</v>
       </c>
       <c r="F202" s="7">
-        <v>3.0</v>
-      </c>
+        <v>12.0</v>
+      </c>
+      <c r="R202" s="29"/>
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>45142.61682072916</v>
+        <v>45142.59517539352</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="F203" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="G203" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R203" s="29"/>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>45142.61800422454</v>
+        <v>45142.447905740744</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>421</v>
+        <v>247</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>422</v>
+        <v>248</v>
       </c>
       <c r="F204" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="R204" s="29"/>
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>45142.62010475695</v>
+        <v>45142.59477814815</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="F205" s="7">
-        <v>40.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="R205" s="29"/>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>45142.62268490741</v>
+        <v>45142.594296979165</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="F206" s="7">
-        <v>26.0</v>
-      </c>
-      <c r="G206" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="R206" s="29"/>
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>45142.62336046297</v>
+        <v>45142.473856550925</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>427</v>
+        <v>302</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>428</v>
+        <v>303</v>
       </c>
       <c r="F207" s="7">
-        <v>26.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R207" s="29"/>
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>45142.62364611111</v>
+        <v>45142.47437939815</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="F208" s="7">
-        <v>36.0</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="R208" s="29"/>
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>45142.62391490741</v>
+        <v>45142.4678671875</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>431</v>
+        <v>283</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>432</v>
+        <v>50</v>
       </c>
       <c r="F209" s="7">
-        <v>2.0</v>
-      </c>
+        <v>53.0</v>
+      </c>
+      <c r="R209" s="29"/>
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>45142.62522105324</v>
+        <v>45142.47788167824</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>433</v>
+        <v>307</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="F210" s="7">
-        <v>16.0</v>
-      </c>
+        <v>25.0</v>
+      </c>
+      <c r="R210" s="29"/>
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>45142.62597013889</v>
+        <v>45142.58884622685</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="F211" s="7">
-        <v>13.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="R211" s="29"/>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>45142.626362546296</v>
+        <v>45142.45126350694</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>437</v>
+        <v>253</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>438</v>
+        <v>252</v>
       </c>
       <c r="F212" s="7">
-        <v>18.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="R212" s="29"/>
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>45142.626762291664</v>
+        <v>45142.45083065973</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>439</v>
+        <v>251</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>440</v>
+        <v>252</v>
       </c>
       <c r="F213" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G213" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="R213" s="29"/>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>45142.62680025463</v>
+        <v>45142.43913829861</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>441</v>
+        <v>242</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="F214" s="7">
-        <v>5.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="R214" s="29"/>
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>45142.62713122685</v>
+        <v>45142.45760363426</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>444</v>
+        <v>262</v>
       </c>
       <c r="F215" s="7">
-        <v>7.0</v>
-      </c>
+        <v>10.0</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R215" s="29"/>
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>45142.627279340275</v>
+        <v>45142.45843211806</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>445</v>
+        <v>263</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>446</v>
+        <v>264</v>
       </c>
       <c r="F216" s="7">
         <v>10.0</v>
@@ -11240,546 +11826,560 @@
       <c r="G216" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R216" s="29"/>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>45142.627637638885</v>
+        <v>45142.456971527776</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>447</v>
+        <v>259</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>448</v>
+        <v>260</v>
       </c>
       <c r="F217" s="7">
-        <v>12.0</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R217" s="29"/>
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>45142.628952430554</v>
+        <v>45142.62597013889</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F218" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="R218" s="29"/>
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>45142.629090682865</v>
+        <v>45142.46715090278</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>451</v>
+        <v>281</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>452</v>
+        <v>282</v>
       </c>
       <c r="F219" s="7">
-        <v>10.0</v>
-      </c>
+        <v>7.0</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R219" s="29"/>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>45142.62960068287</v>
+        <v>45142.4690505787</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>453</v>
+        <v>286</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>454</v>
+        <v>287</v>
       </c>
       <c r="F220" s="7">
-        <v>18.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="R220" s="29"/>
+      <c r="S220" s="7" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>45142.62993246528</v>
+        <v>45142.459293935186</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>455</v>
+        <v>265</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>456</v>
+        <v>266</v>
       </c>
       <c r="F221" s="7">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="G221" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H221" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="I221" s="7" t="s">
-        <v>457</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="R221" s="29"/>
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>45142.63039542824</v>
+        <v>45142.460168460646</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>458</v>
+        <v>268</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="F222" s="7">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R222" s="29"/>
+      <c r="S222" s="7"/>
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>45142.630702511575</v>
+        <v>45142.461301504634</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>461</v>
+        <v>271</v>
       </c>
       <c r="F223" s="7">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
       <c r="G223" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H223" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I223" s="7" t="s">
-        <v>462</v>
-      </c>
+      <c r="R223" s="29"/>
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>45142.6311007176</v>
+        <v>45142.462957129625</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>463</v>
+        <v>272</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>464</v>
+        <v>273</v>
       </c>
       <c r="F224" s="7">
-        <v>7.0</v>
+        <v>29.0</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H224" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I224" s="7" t="s">
-        <v>465</v>
-      </c>
+      <c r="R224" s="29"/>
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>45142.6315544213</v>
+        <v>45142.59469439815</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>467</v>
+        <v>354</v>
       </c>
       <c r="F225" s="7">
-        <v>2.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R225" s="29"/>
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>45142.63190922454</v>
+        <v>45142.59397890046</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="F226" s="7">
-        <v>2.0</v>
-      </c>
+        <v>16.0</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R226" s="29"/>
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>45142.634228703704</v>
+        <v>45142.595696006945</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>470</v>
+        <v>359</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>471</v>
+        <v>360</v>
       </c>
       <c r="F227" s="7">
-        <v>31.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="G227" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R227" s="29"/>
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>45142.63423894676</v>
+        <v>45142.596969791666</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>472</v>
+        <v>367</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>473</v>
+        <v>368</v>
       </c>
       <c r="F228" s="7">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="G228" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="R228" s="29"/>
     </row>
     <row r="229">
-      <c r="R229" s="36"/>
+      <c r="R229" s="30"/>
     </row>
     <row r="230">
-      <c r="R230" s="36"/>
+      <c r="R230" s="30"/>
     </row>
     <row r="231">
-      <c r="R231" s="36"/>
+      <c r="R231" s="30"/>
     </row>
     <row r="232">
-      <c r="R232" s="36"/>
+      <c r="R232" s="30"/>
     </row>
     <row r="233">
-      <c r="R233" s="36"/>
+      <c r="R233" s="30"/>
     </row>
     <row r="234">
-      <c r="R234" s="36"/>
+      <c r="R234" s="30"/>
     </row>
     <row r="235">
-      <c r="R235" s="36"/>
+      <c r="R235" s="30"/>
     </row>
     <row r="236">
-      <c r="R236" s="36"/>
+      <c r="R236" s="30"/>
     </row>
     <row r="237">
-      <c r="R237" s="36"/>
+      <c r="R237" s="30"/>
     </row>
     <row r="238">
-      <c r="R238" s="36"/>
+      <c r="R238" s="30"/>
     </row>
     <row r="239">
-      <c r="R239" s="36"/>
+      <c r="R239" s="30"/>
     </row>
     <row r="240">
-      <c r="R240" s="36"/>
+      <c r="R240" s="30"/>
     </row>
     <row r="241">
-      <c r="R241" s="36"/>
+      <c r="R241" s="30"/>
     </row>
     <row r="242">
-      <c r="R242" s="36"/>
+      <c r="R242" s="30"/>
     </row>
     <row r="243">
-      <c r="R243" s="36"/>
+      <c r="R243" s="30"/>
     </row>
     <row r="244">
-      <c r="R244" s="36"/>
+      <c r="R244" s="30"/>
     </row>
     <row r="245">
-      <c r="R245" s="36"/>
+      <c r="R245" s="30"/>
     </row>
     <row r="246">
-      <c r="R246" s="36"/>
+      <c r="R246" s="30"/>
     </row>
     <row r="247">
-      <c r="R247" s="36"/>
+      <c r="R247" s="30"/>
     </row>
     <row r="248">
-      <c r="R248" s="36"/>
+      <c r="R248" s="30"/>
     </row>
     <row r="249">
-      <c r="R249" s="36"/>
+      <c r="R249" s="30"/>
     </row>
     <row r="250">
-      <c r="R250" s="36"/>
+      <c r="R250" s="30"/>
     </row>
     <row r="251">
-      <c r="R251" s="36"/>
+      <c r="R251" s="30"/>
     </row>
     <row r="252">
-      <c r="R252" s="36"/>
+      <c r="R252" s="30"/>
     </row>
     <row r="253">
-      <c r="R253" s="36"/>
+      <c r="R253" s="30"/>
     </row>
     <row r="254">
-      <c r="R254" s="36"/>
+      <c r="R254" s="30"/>
     </row>
     <row r="255">
-      <c r="R255" s="36"/>
+      <c r="R255" s="30"/>
     </row>
     <row r="256">
-      <c r="R256" s="36"/>
+      <c r="R256" s="30"/>
     </row>
     <row r="257">
-      <c r="R257" s="36"/>
+      <c r="R257" s="30"/>
     </row>
     <row r="258">
-      <c r="R258" s="36"/>
+      <c r="R258" s="30"/>
     </row>
     <row r="259">
-      <c r="R259" s="36"/>
+      <c r="R259" s="30"/>
     </row>
     <row r="260">
-      <c r="R260" s="36"/>
+      <c r="R260" s="30"/>
     </row>
     <row r="261">
-      <c r="R261" s="36"/>
+      <c r="R261" s="30"/>
     </row>
     <row r="262">
-      <c r="R262" s="36"/>
+      <c r="R262" s="30"/>
     </row>
     <row r="263">
-      <c r="R263" s="36"/>
+      <c r="R263" s="30"/>
     </row>
     <row r="264">
-      <c r="R264" s="36"/>
+      <c r="R264" s="30"/>
     </row>
     <row r="265">
-      <c r="R265" s="36"/>
+      <c r="R265" s="30"/>
     </row>
     <row r="266">
-      <c r="R266" s="36"/>
+      <c r="R266" s="30"/>
     </row>
     <row r="267">
-      <c r="R267" s="36"/>
+      <c r="R267" s="30"/>
     </row>
     <row r="268">
-      <c r="R268" s="36"/>
+      <c r="R268" s="30"/>
     </row>
     <row r="269">
-      <c r="R269" s="36"/>
+      <c r="R269" s="30"/>
     </row>
     <row r="270">
-      <c r="R270" s="36"/>
+      <c r="R270" s="30"/>
     </row>
     <row r="271">
-      <c r="R271" s="36"/>
+      <c r="R271" s="30"/>
     </row>
     <row r="272">
-      <c r="R272" s="36"/>
+      <c r="R272" s="30"/>
     </row>
     <row r="273">
-      <c r="R273" s="36"/>
+      <c r="R273" s="30"/>
     </row>
     <row r="274">
-      <c r="R274" s="36"/>
+      <c r="R274" s="30"/>
     </row>
     <row r="275">
-      <c r="R275" s="36"/>
+      <c r="R275" s="30"/>
     </row>
     <row r="276">
-      <c r="R276" s="36"/>
+      <c r="R276" s="30"/>
     </row>
     <row r="277">
-      <c r="R277" s="36"/>
+      <c r="R277" s="30"/>
     </row>
     <row r="278">
-      <c r="R278" s="36"/>
+      <c r="R278" s="30"/>
     </row>
     <row r="279">
-      <c r="R279" s="36"/>
+      <c r="R279" s="30"/>
     </row>
     <row r="280">
-      <c r="R280" s="36"/>
+      <c r="R280" s="30"/>
     </row>
     <row r="281">
-      <c r="R281" s="36"/>
+      <c r="R281" s="30"/>
     </row>
     <row r="282">
-      <c r="R282" s="36"/>
+      <c r="R282" s="30"/>
     </row>
     <row r="283">
-      <c r="R283" s="36"/>
+      <c r="R283" s="30"/>
     </row>
     <row r="284">
-      <c r="R284" s="36"/>
+      <c r="R284" s="30"/>
     </row>
     <row r="285">
-      <c r="R285" s="36"/>
+      <c r="R285" s="30"/>
     </row>
     <row r="286">
-      <c r="R286" s="36"/>
+      <c r="R286" s="30"/>
     </row>
     <row r="287">
-      <c r="R287" s="36"/>
+      <c r="R287" s="30"/>
     </row>
     <row r="288">
-      <c r="R288" s="36"/>
+      <c r="R288" s="30"/>
     </row>
     <row r="289">
-      <c r="R289" s="36"/>
+      <c r="R289" s="30"/>
     </row>
     <row r="290">
-      <c r="R290" s="36"/>
+      <c r="R290" s="30"/>
     </row>
     <row r="291">
-      <c r="R291" s="36"/>
+      <c r="R291" s="30"/>
     </row>
     <row r="292">
-      <c r="R292" s="36"/>
+      <c r="R292" s="30"/>
     </row>
     <row r="293">
-      <c r="R293" s="36"/>
+      <c r="R293" s="30"/>
     </row>
     <row r="294">
-      <c r="R294" s="36"/>
+      <c r="R294" s="30"/>
     </row>
     <row r="295">
-      <c r="R295" s="36"/>
+      <c r="R295" s="30"/>
     </row>
     <row r="296">
-      <c r="R296" s="36"/>
+      <c r="R296" s="30"/>
     </row>
     <row r="297">
-      <c r="R297" s="36"/>
+      <c r="R297" s="30"/>
     </row>
     <row r="298">
-      <c r="R298" s="36"/>
+      <c r="R298" s="30"/>
     </row>
     <row r="299">
-      <c r="R299" s="36"/>
+      <c r="R299" s="30"/>
     </row>
     <row r="300">
-      <c r="R300" s="36"/>
+      <c r="R300" s="30"/>
     </row>
     <row r="301">
-      <c r="R301" s="36"/>
+      <c r="R301" s="30"/>
     </row>
     <row r="302">
-      <c r="R302" s="36"/>
+      <c r="R302" s="30"/>
     </row>
     <row r="303">
-      <c r="R303" s="36"/>
+      <c r="R303" s="30"/>
     </row>
     <row r="304">
-      <c r="R304" s="36"/>
+      <c r="R304" s="30"/>
     </row>
     <row r="305">
-      <c r="R305" s="36"/>
+      <c r="R305" s="30"/>
     </row>
     <row r="306">
-      <c r="R306" s="36"/>
+      <c r="R306" s="30"/>
     </row>
     <row r="307">
-      <c r="R307" s="36"/>
+      <c r="R307" s="30"/>
     </row>
     <row r="308">
-      <c r="R308" s="36"/>
+      <c r="R308" s="30"/>
     </row>
     <row r="309">
-      <c r="R309" s="36"/>
+      <c r="R309" s="30"/>
     </row>
     <row r="310">
-      <c r="R310" s="36"/>
+      <c r="R310" s="30"/>
     </row>
     <row r="311">
-      <c r="R311" s="36"/>
+      <c r="R311" s="30"/>
     </row>
     <row r="312">
-      <c r="R312" s="36"/>
+      <c r="R312" s="30"/>
     </row>
     <row r="313">
-      <c r="R313" s="36"/>
+      <c r="R313" s="30"/>
     </row>
     <row r="314">
-      <c r="R314" s="36"/>
+      <c r="R314" s="30"/>
     </row>
     <row r="315">
-      <c r="R315" s="36"/>
+      <c r="R315" s="30"/>
     </row>
     <row r="316">
-      <c r="R316" s="36"/>
+      <c r="R316" s="30"/>
     </row>
     <row r="317">
-      <c r="R317" s="36"/>
+      <c r="R317" s="30"/>
     </row>
     <row r="318">
-      <c r="R318" s="36"/>
+      <c r="R318" s="30"/>
     </row>
     <row r="319">
-      <c r="R319" s="36"/>
+      <c r="R319" s="30"/>
     </row>
     <row r="320">
-      <c r="R320" s="36"/>
+      <c r="R320" s="30"/>
     </row>
     <row r="321">
-      <c r="R321" s="36"/>
+      <c r="R321" s="30"/>
     </row>
     <row r="322">
-      <c r="R322" s="36"/>
+      <c r="R322" s="30"/>
     </row>
     <row r="323">
-      <c r="R323" s="36"/>
+      <c r="R323" s="30"/>
     </row>
     <row r="324">
-      <c r="R324" s="36"/>
+      <c r="R324" s="30"/>
     </row>
     <row r="325">
-      <c r="R325" s="36"/>
+      <c r="R325" s="30"/>
     </row>
     <row r="326">
-      <c r="R326" s="36"/>
+      <c r="R326" s="30"/>
     </row>
     <row r="327">
-      <c r="R327" s="36"/>
+      <c r="R327" s="30"/>
     </row>
     <row r="328">
-      <c r="R328" s="36"/>
+      <c r="R328" s="30"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
